--- a/biology/Botanique/Cicerbita_alpina/Cicerbita_alpina.xlsx
+++ b/biology/Botanique/Cicerbita_alpina/Cicerbita_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Laitue des Alpes ou Laiteron des montagnes (Cicerbita alpina) est une espèce de plante à fleurs de la famille des Asteraceae. Elle est parfois aussi appelée Mulgédie des Alpes, ou chicorée de montagne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Laitue des Alpes ou Laiteron des montagnes (Cicerbita alpina) est une espèce de plante à fleurs de la famille des Asteraceae. Elle est parfois aussi appelée Mulgédie des Alpes, ou chicorée de montagne.
 Synonyme :
 Lactuca alpina (L.) Benth. &amp; Hook.f., 1876
 </t>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La laitue des Alpes est une plante herbacée vivace de hauteur variable pouvant dépasser deux mètres[réf. nécessaire]. Elle compte de nombreux capitules bleu-violet à mauve disposés en grappes. La tige contient une sorte de latex. Les feuilles sont larges, triangulaires et embrassantes par deux oreillettes.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La laitue des Alpes croît dans les bois et les rochers humides en Europe septentrionale et dans plusieurs massifs montagneux européens : Vosges, Jura, Alpes, Massif central, Pyrénées, nord des Apennins. Dans les Alpes, on la trouve entre 800 et 2 200 m d'altitude[réf. nécessaire].
 			Aspect général.
